--- a/Assets/GameMain/DataTables/Monster.xlsx
+++ b/Assets/GameMain/DataTables/Monster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>招财猫</t>
+  </si>
+  <si>
+    <t>DamageReduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -470,15 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -521,13 +536,16 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -562,13 +580,16 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -603,13 +624,16 @@
         <v>26</v>
       </c>
       <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -629,13 +653,16 @@
         <v>2000</v>
       </c>
       <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -655,13 +682,16 @@
         <v>2000</v>
       </c>
       <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -681,13 +711,16 @@
         <v>2000</v>
       </c>
       <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -707,13 +740,16 @@
         <v>2000</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -733,13 +769,16 @@
         <v>2000</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -759,13 +798,16 @@
         <v>2000</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11">
         <v>1007</v>
       </c>
@@ -785,13 +827,16 @@
         <v>2000</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12">
         <v>1008</v>
       </c>
@@ -811,9 +856,12 @@
         <v>2000</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0</v>
       </c>
     </row>
